--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_0_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_0_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3660761270891226</v>
+        <v>0.3935938753219833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3660761270891226</v>
+        <v>0.3935938753219833</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.899410851303966</v>
+        <v>3.770348528762438</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.236827101954519, 14.03564880456245]</t>
+          <t>[-3.5016359251390274, 11.042332982663904]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2858589923592096</v>
+        <v>0.3019407041416662</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2858589923592096</v>
+        <v>0.3019407041416662</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.553526761476388</v>
+        <v>-1.74847398938531</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.673106253329316, 0.5660527303765397]</t>
+          <t>[-4.861764006456276, 1.3648160276856558]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1061864136926931</v>
+        <v>0.2639831432516635</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1061864136926931</v>
+        <v>0.2639831432516635</v>
       </c>
       <c r="T2" t="n">
-        <v>15.45712047515549</v>
+        <v>11.27589802921457</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.646168571825655, 20.26807237848533]</t>
+          <t>[7.278042130895699, 15.273753927533438]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.223831672258484e-08</v>
+        <v>9.276035546346151e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>6.223831672258484e-08</v>
+        <v>9.276035546346151e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>10.07481481481499</v>
+        <v>7.224104104104274</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.233333333333373</v>
+        <v>-5.638958958959096</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.38296296296336</v>
+        <v>20.08716716716764</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1597989661234009</v>
+        <v>0.2684950861458723</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1597989661234009</v>
+        <v>0.2684950861458723</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.05163738823542</v>
+        <v>4.979876216103064</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.2044420642048657, 14.307716840675706]</t>
+          <t>[-3.2213232141504458, 13.181075646356575]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1468217788201591</v>
+        <v>0.227699749898097</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1468217788201591</v>
+        <v>0.227699749898097</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.792526803190927</v>
+        <v>-2.050368778919465</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.522158858562239, -0.06289474781961513]</t>
+          <t>[-5.006421926441392, 0.9056843686024623]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.045158817905814</v>
+        <v>0.169260067517701</v>
       </c>
       <c r="S3" t="n">
-        <v>0.045158817905814</v>
+        <v>0.169260067517701</v>
       </c>
       <c r="T3" t="n">
-        <v>12.67920937237415</v>
+        <v>14.98985300309567</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.338428599221432, 17.01999014552687]</t>
+          <t>[10.658368020681323, 19.321337985510027]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.654787564284391e-07</v>
+        <v>1.128324877974762e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.654787564284391e-07</v>
+        <v>1.128324877974762e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>11.01777777777797</v>
+        <v>8.471431431431633</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.248148148148152</v>
+        <v>-3.74198198198207</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.78740740740779</v>
+        <v>20.68484484484534</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7564415804506701</v>
+        <v>0.2401514149513491</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7564415804506701</v>
+        <v>0.2401514149513491</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2.526104732865039</v>
+        <v>5.748857212806155</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-6.441818544514441, 11.49402801024452]</t>
+          <t>[-3.2719460617826206, 14.76966048739493]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5733047142055723</v>
+        <v>0.2058644930736093</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5733047142055723</v>
+        <v>0.2058644930736093</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.352263568453619</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.490711484652431, 0.786184347745194]</t>
+          <t>[-4.937237703839816, 1.2138686329185795]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1381437307197317</v>
+        <v>0.229131560696914</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1381437307197317</v>
+        <v>0.229131560696914</v>
       </c>
       <c r="T4" t="n">
-        <v>13.89122758693264</v>
+        <v>16.21853220907132</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.12129016844672, 18.661165005418553]</t>
+          <t>[11.359195610029817, 21.077868808112825]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.941842397521157e-07</v>
+        <v>2.6334890712576e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>4.941842397521157e-07</v>
+        <v>2.6334890712576e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>9.280740740740903</v>
+        <v>7.691851851852036</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.101851851851908</v>
+        <v>-5.015295295295418</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.66333333333371</v>
+        <v>20.39899899899949</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4308879080052587</v>
+        <v>0.1697377072380168</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4308879080052587</v>
+        <v>0.1697377072380168</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.867851522120248</v>
+        <v>5.12460561578918</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.381224704718095, 12.11692774895859]</t>
+          <t>[-1.7480542040126625, 11.997265435591023]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.350019275773882</v>
+        <v>0.1401292563762306</v>
       </c>
       <c r="O5" t="n">
-        <v>0.350019275773882</v>
+        <v>0.1401292563762306</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.377421467581465</v>
+        <v>2.861711025792505</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.509579908998316, 0.7547369738353868]</t>
+          <t>[0.2327105669325773, 5.490711484652432]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1333192257641889</v>
+        <v>0.03356442982683161</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1333192257641889</v>
+        <v>0.03356442982683161</v>
       </c>
       <c r="T5" t="n">
-        <v>11.31145574975577</v>
+        <v>11.48688782690343</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.132360262058064, 15.490551237453477]</t>
+          <t>[7.740412235516738, 15.23336341829013]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.019000963304762e-06</v>
+        <v>1.713925688040518e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>2.019000963304762e-06</v>
+        <v>1.713925688040518e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>9.380000000000162</v>
+        <v>14.13637637637671</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.977777777777835</v>
+        <v>3.27423423423431</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.73777777777816</v>
+        <v>24.99851851851911</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01325709820095822</v>
+        <v>0.8970361765767813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01325709820095822</v>
+        <v>0.8970361765767813</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>10.22704980637401</v>
+        <v>1.414768995320921</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1.6827640016934495, 18.771335611054567]</t>
+          <t>[-6.651250522936611, 9.480788513578453]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02006509449751559</v>
+        <v>0.7255348908259318</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02006509449751559</v>
+        <v>0.7255348908259318</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.80510575275485</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.8240006674326215, -1.786210838077079]</t>
+          <t>[-5.84921154722424, 0.4151053356094625]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.471014027254469e-06</v>
+        <v>0.0874292414409743</v>
       </c>
       <c r="S6" t="n">
-        <v>1.471014027254469e-06</v>
+        <v>0.0874292414409743</v>
       </c>
       <c r="T6" t="n">
-        <v>14.93932677412946</v>
+        <v>10.74056753740831</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.295375585019645, 19.583277963239265]</t>
+          <t>[6.595063609332897, 14.886071465483731]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.052729539796076e-08</v>
+        <v>4.431934654602898e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>6.052729539796076e-08</v>
+        <v>4.431934654602898e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.0674074074076</v>
+        <v>11.22594594594621</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.04740740740753</v>
+        <v>-1.715075075075116</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.08740740740767</v>
+        <v>24.16696696696754</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2357878093095848</v>
+        <v>0.06319193831835257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2357878093095848</v>
+        <v>0.06319193831835257</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.725310148473897</v>
+        <v>7.381539983089645</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.1439466809788925, 11.594566977926686]</t>
+          <t>[-1.3563345356089798, 16.11941450178827]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1727329432046538</v>
+        <v>0.09575657936296711</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1727329432046538</v>
+        <v>0.09575657936296711</v>
       </c>
       <c r="P7" t="n">
-        <v>2.92460577361212</v>
+        <v>2.522079387566581</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.056605273037654946, 5.792606274186586]</t>
+          <t>[-0.21384214258669232, 5.258000917719855]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.04582705396283338</v>
+        <v>0.06991036117224536</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04582705396283338</v>
+        <v>0.06991036117224536</v>
       </c>
       <c r="T7" t="n">
-        <v>11.12657052427688</v>
+        <v>13.96982528483336</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.280174091890023, 14.972966956663742]</t>
+          <t>[9.570313631981225, 18.3693369376855]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.651102914505657e-07</v>
+        <v>8.066661227879024e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>5.651102914505657e-07</v>
+        <v>8.066661227879024e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>13.25111111111134</v>
+        <v>15.53961961961999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.935555555555588</v>
+        <v>4.235715715715813</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.56666666666709</v>
+        <v>26.84352352352416</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5359156360039483</v>
+        <v>0.3813034416379262</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5359156360039483</v>
+        <v>0.3813034416379262</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.853444872890935</v>
+        <v>4.864631993034623</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.522560979121164, 13.229450724903035]</t>
+          <t>[-5.113016362889784, 14.84228034895903]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4121656706160333</v>
+        <v>0.3313589890667346</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4121656706160333</v>
+        <v>0.3313589890667346</v>
       </c>
       <c r="P8" t="n">
-        <v>2.320816194543811</v>
+        <v>2.03150035457358</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 5.459264110742623]</t>
+          <t>[-1.1006580868432714, 5.163658795990431]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1433612638625363</v>
+        <v>0.1980760697920929</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1433612638625363</v>
+        <v>0.1980760697920929</v>
       </c>
       <c r="T8" t="n">
-        <v>12.55442741912625</v>
+        <v>17.25066281182394</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.643434233807371, 17.46542060444513]</t>
+          <t>[12.105198073887259, 22.396127549760628]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.595428027138638e-06</v>
+        <v>2.374917529301968e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>5.595428027138638e-06</v>
+        <v>2.374917529301968e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>15.63333333333361</v>
+        <v>17.56652652652695</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.250740740740797</v>
+        <v>4.625505505505616</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.01592592592642</v>
+        <v>30.50754754754828</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.2600000000002</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8636167232661892</v>
+        <v>0.3881366143283921</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8636167232661892</v>
+        <v>0.3881366143283921</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.893986110094448</v>
+        <v>4.516639622578596</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-7.219700630922682, 11.007672851111579]</t>
+          <t>[-3.7596726205692246, 12.792951865726417]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.6775239986668966</v>
+        <v>0.2775448449179285</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6775239986668966</v>
+        <v>0.2775448449179285</v>
       </c>
       <c r="P9" t="n">
-        <v>1.528342372016656</v>
+        <v>1.088079137279347</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.603816069400195, 4.660500813433507]</t>
+          <t>[-2.0377898293555416, 4.213948103914235]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3309677345850477</v>
+        <v>0.4868589405512931</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3309677345850477</v>
+        <v>0.4868589405512931</v>
       </c>
       <c r="T9" t="n">
-        <v>15.97879826380476</v>
+        <v>12.33064928317409</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[11.081947261931951, 20.875649265677573]</t>
+          <t>[7.779382248951293, 16.88191631739688]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.402807407544174e-08</v>
+        <v>1.983504313018969e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.402807407544174e-08</v>
+        <v>1.983504313018969e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>17.60216216216231</v>
+        <v>18.85165165165176</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.007087087087138</v>
+        <v>7.50870870870876</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.19723723723749</v>
+        <v>30.19459459459476</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.2600000000002</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4312776776671399</v>
+        <v>0.04306966566079762</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4312776776671399</v>
+        <v>0.04306966566079762</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.802271520221731</v>
+        <v>7.901610431658655</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.165896646939801, 11.770439687383263]</t>
+          <t>[0.11566331706314337, 15.687557546254167]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3416403638257863</v>
+        <v>0.04682988632101659</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3416403638257863</v>
+        <v>0.04682988632101659</v>
       </c>
       <c r="P10" t="n">
-        <v>2.245342497160272</v>
+        <v>1.314500229429963</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.8868159442565791, 5.377500938577123]</t>
+          <t>[-0.08176317216550189, 2.7107636310254275]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1557089837060346</v>
+        <v>0.06437051367951252</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1557089837060346</v>
+        <v>0.06437051367951252</v>
       </c>
       <c r="T10" t="n">
-        <v>13.28399790286599</v>
+        <v>11.27070660331649</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.159880504537341, 17.40811530119465]</t>
+          <t>[7.03347648344381, 15.507936723189161]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.883538167772429e-08</v>
+        <v>2.775333504123623e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.883538167772429e-08</v>
+        <v>2.775333504123623e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>14.947867867868</v>
+        <v>18.03003003003013</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.352792792792822</v>
+        <v>12.96336336336343</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.54294294294317</v>
+        <v>23.09669669669683</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.2600000000002</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6782592202751117</v>
+        <v>0.008208494257470722</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6782592202751117</v>
+        <v>0.008208494257470722</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>2.98731935941958</v>
+        <v>9.246163865069693</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-6.1831662916859145, 12.157805010525074]</t>
+          <t>[2.2784679291617103, 16.213859800977676]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.5150997263445518</v>
+        <v>0.01044266991410803</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5150997263445518</v>
+        <v>0.01044266991410803</v>
       </c>
       <c r="P11" t="n">
-        <v>2.295658295415965</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.8365001460008852, 5.427816736832815]</t>
+          <t>[0.3836579616996545, 2.396289891927349]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1468540544308037</v>
+        <v>0.007866266447666748</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1468540544308037</v>
+        <v>0.007866266447666748</v>
       </c>
       <c r="T11" t="n">
-        <v>12.52195167958159</v>
+        <v>10.50413512942792</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.719263784240056, 17.324639574923133]</t>
+          <t>[6.571100901615916, 14.437169357239926]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.966693438606228e-06</v>
+        <v>2.578468242475651e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>3.966693438606228e-06</v>
+        <v>2.578468242475651e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>14.76160160160173</v>
+        <v>17.75615615615625</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166526526526557</v>
+        <v>14.10450450450458</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.3566766766769</v>
+        <v>21.40780780780793</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.2600000000002</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4355832158245702</v>
+        <v>0.2466470110482092</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4355832158245702</v>
+        <v>0.2466470110482092</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.433251750688485</v>
+        <v>5.636924193320492</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-4.654913342315218, 13.521416843692187]</t>
+          <t>[-3.191976550669062, 14.465824937310046]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3311117784514994</v>
+        <v>0.2050452364864388</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3311117784514994</v>
+        <v>0.2050452364864388</v>
       </c>
       <c r="P12" t="n">
-        <v>2.496921488438735</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.6415264277600778, 5.635369404637547]</t>
+          <t>[-0.8176317216550011, 5.408948312486931]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.116063777983316</v>
+        <v>0.1444770930476968</v>
       </c>
       <c r="S12" t="n">
-        <v>0.116063777983316</v>
+        <v>0.1444770930476968</v>
       </c>
       <c r="T12" t="n">
-        <v>15.67437824772706</v>
+        <v>14.62245958382096</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.79944329064692, 20.54931320480719]</t>
+          <t>[9.886429247267102, 19.358489920374808]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.121737805564464e-08</v>
+        <v>1.478380409203339e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>6.121737805564464e-08</v>
+        <v>1.478380409203339e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>14.01653653653665</v>
+        <v>14.46966966966975</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.398178178178195</v>
+        <v>3.17237237237239</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.63489489489511</v>
+        <v>25.76696696696711</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.2600000000002</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2806211934452175</v>
+        <v>0.07285559864644298</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2806211934452175</v>
+        <v>0.07285559864644298</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.202152833810096</v>
+        <v>8.642986287617653</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-2.808003895682784, 11.212309563302977]</t>
+          <t>[-1.483799704575155, 18.76977227981046]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2336130192122419</v>
+        <v>0.09248884319255968</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2336130192122419</v>
+        <v>0.09248884319255968</v>
       </c>
       <c r="P13" t="n">
-        <v>2.283079345852042</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.855368570346771, 5.421527262050855]</t>
+          <t>[0.421394810391424, 4.723395561253122]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1498271812147256</v>
+        <v>0.02016700166773577</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1498271812147256</v>
+        <v>0.02016700166773577</v>
       </c>
       <c r="T13" t="n">
-        <v>15.02506083782611</v>
+        <v>15.27942591698821</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[11.330815278369155, 18.719306397283066]</t>
+          <t>[9.982531425251274, 20.576320408725138]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.81643144969712e-10</v>
+        <v>5.975409631542306e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.81643144969712e-10</v>
+        <v>5.975409631542306e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>14.80816816816829</v>
+        <v>13.46546546546554</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.189809809809836</v>
+        <v>5.660060060060093</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.42652652652675</v>
+        <v>21.27087087087099</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.2600000000002</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2813535672795091</v>
+        <v>0.570971844431662</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2813535672795091</v>
+        <v>0.570971844431662</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.380676768313834</v>
+        <v>2.854000785463495</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.48622466343972, 14.247578200067387]</t>
+          <t>[-4.327819849990039, 10.035821420917028]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2279906695347289</v>
+        <v>0.4276907341810725</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2279906695347289</v>
+        <v>0.4276907341810725</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.918316298830158</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-6.006448416773278, 0.16981581911296129]</t>
+          <t>[-0.044026323473730145, 6.169974761104278]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.06340331197852755</v>
+        <v>0.05319546890258819</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06340331197852755</v>
+        <v>0.05319546890258819</v>
       </c>
       <c r="T14" t="n">
-        <v>12.18129378797684</v>
+        <v>9.829627611501099</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.376944780533677, 16.985642795420006]</t>
+          <t>[5.924426067352431, 13.734829155649766]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.443027446456639e-06</v>
+        <v>7.293181489620437e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>6.443027446456639e-06</v>
+        <v>7.293181489620437e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>10.80344344344353</v>
+        <v>11.68528528528535</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.6286486486486531</v>
+        <v>0.4108108108108155</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.23553553553572</v>
+        <v>22.95975975975988</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_0_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_0_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3935938753219833</v>
+        <v>0.1444497207598876</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3935938753219833</v>
+        <v>0.1444497207598876</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.770348528762438</v>
+        <v>7.469353473141887</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.5016359251390274, 11.042332982663904]</t>
+          <t>[-2.9907774525198816, 17.929484398803655]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3019407041416662</v>
+        <v>0.1572882095123604</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3019407041416662</v>
+        <v>0.1572882095123604</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.74847398938531</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.861764006456276, 1.3648160276856558]</t>
+          <t>[-4.031553335237352, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2639831432516635</v>
+        <v>0.4639562188512831</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2639831432516635</v>
+        <v>0.4639562188512831</v>
       </c>
       <c r="T2" t="n">
-        <v>11.27589802921457</v>
+        <v>13.90662097931954</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.278042130895699, 15.273753927533438]</t>
+          <t>[8.412389550102084, 19.400852408537006]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.276035546346151e-07</v>
+        <v>6.634192856402876e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>9.276035546346151e-07</v>
+        <v>6.634192856402876e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>7.224104104104274</v>
+        <v>4.445485485485587</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.638958958959096</v>
+        <v>-7.676216216216396</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.08716716716764</v>
+        <v>16.56718718718757</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2684950861458723</v>
+        <v>0.2481910193138711</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2684950861458723</v>
+        <v>0.2481910193138711</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.979876216103064</v>
+        <v>5.866806665853424</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.2213232141504458, 13.181075646356575]</t>
+          <t>[-3.6683864883530894, 15.401999820059938]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.227699749898097</v>
+        <v>0.2216826537944541</v>
       </c>
       <c r="O3" t="n">
-        <v>0.227699749898097</v>
+        <v>0.2216826537944541</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.050368778919465</v>
+        <v>-1.987474031099849</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.006421926441392, 0.9056843686024623]</t>
+          <t>[-5.0190008760053155, 1.0440528138056182]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.169260067517701</v>
+        <v>0.193361792166989</v>
       </c>
       <c r="S3" t="n">
-        <v>0.169260067517701</v>
+        <v>0.193361792166989</v>
       </c>
       <c r="T3" t="n">
-        <v>14.98985300309567</v>
+        <v>11.36120911288424</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.658368020681323, 19.321337985510027]</t>
+          <t>[6.392858358203366, 16.32955986756512]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.128324877974762e-08</v>
+        <v>3.376132294041767e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.128324877974762e-08</v>
+        <v>3.376132294041767e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>8.471431431431633</v>
+        <v>8.167287287287472</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.74198198198207</v>
+        <v>-4.290410410410518</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.68484484484534</v>
+        <v>20.62498498498546</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2401514149513491</v>
+        <v>0.3034669181354216</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2401514149513491</v>
+        <v>0.3034669181354216</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.748857212806155</v>
+        <v>5.383884950949488</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.2719460617826206, 14.76966048739493]</t>
+          <t>[-3.750500538136828, 14.518270440035804]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2058644930736093</v>
+        <v>0.2414055035356555</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2058644930736093</v>
+        <v>0.2414055035356555</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.861684535460618</v>
+        <v>-2.151000375430849</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.937237703839816, 1.2138686329185795]</t>
+          <t>[-5.2831588168477, 0.9811580659860022]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.229131560696914</v>
+        <v>0.1734344438972</v>
       </c>
       <c r="S4" t="n">
-        <v>0.229131560696914</v>
+        <v>0.1734344438972</v>
       </c>
       <c r="T4" t="n">
-        <v>16.21853220907132</v>
+        <v>12.54733424159749</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[11.359195610029817, 21.077868808112825]</t>
+          <t>[7.660823568559691, 17.433844914635294]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.6334890712576e-08</v>
+        <v>5.182497239353268e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.6334890712576e-08</v>
+        <v>5.182497239353268e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>7.691851851852036</v>
+        <v>8.839279279279481</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.015295295295418</v>
+        <v>-4.031951951952049</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.39899899899949</v>
+        <v>21.71051051051101</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1697377072380168</v>
+        <v>0.1734851758579908</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1697377072380168</v>
+        <v>0.1734851758579908</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.12460561578918</v>
+        <v>8.158650941922621</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.7480542040126625, 11.997265435591023]</t>
+          <t>[-3.1059514070918333, 19.423253290937076]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1401292563762306</v>
+        <v>0.1515760003952589</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1401292563762306</v>
+        <v>0.1515760003952589</v>
       </c>
       <c r="P5" t="n">
-        <v>2.861711025792505</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 5.490711484652432]</t>
+          <t>[-5.7297115263669705, 0.2956053147521924]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.03356442982683161</v>
+        <v>0.07596171986645772</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03356442982683161</v>
+        <v>0.07596171986645772</v>
       </c>
       <c r="T5" t="n">
-        <v>11.48688782690343</v>
+        <v>14.20489814193205</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.740412235516738, 15.23336341829013]</t>
+          <t>[8.33887497357292, 20.070921310291187]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.713925688040518e-07</v>
+        <v>1.382736151800401e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.713925688040518e-07</v>
+        <v>1.382736151800401e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>14.13637637637671</v>
+        <v>11.16540540540567</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.27423423423431</v>
+        <v>-1.214754754754781</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.99851851851911</v>
+        <v>23.54556556556611</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8970361765767813</v>
+        <v>0.4960720919898868</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8970361765767813</v>
+        <v>0.4960720919898868</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.414768995320921</v>
+        <v>4.389442848941709</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-6.651250522936611, 9.480788513578453]</t>
+          <t>[-4.307297537349081, 13.086183235232498]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.7255348908259318</v>
+        <v>0.3147956133869345</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7255348908259318</v>
+        <v>0.3147956133869345</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.717053105807389</v>
+        <v>-3.031526844905466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.84921154722424, 0.4151053356094625]</t>
+          <t>[-6.157395811540354, 0.09434212172942225]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0874292414409743</v>
+        <v>0.05701681438972228</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0874292414409743</v>
+        <v>0.05701681438972228</v>
       </c>
       <c r="T6" t="n">
-        <v>10.74056753740831</v>
+        <v>13.61219147283254</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.595063609332897, 14.886071465483731]</t>
+          <t>[8.558034860251345, 18.666348085413723]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.431934654602898e-06</v>
+        <v>2.212102345744427e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.431934654602898e-06</v>
+        <v>2.212102345744427e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.22594594594621</v>
+        <v>12.45769769769798</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.715075075075116</v>
+        <v>-0.3876876876876949</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.16696696696754</v>
+        <v>25.30308308308366</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06319193831835257</v>
+        <v>0.01390164724698795</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06319193831835257</v>
+        <v>0.01390164724698795</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.381539983089645</v>
+        <v>9.065024427829485</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.3563345356089798, 16.11941450178827]</t>
+          <t>[1.8977644423029076, 16.232284413356062]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.09575657936296711</v>
+        <v>0.01434028327626669</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09575657936296711</v>
+        <v>0.01434028327626669</v>
       </c>
       <c r="P7" t="n">
-        <v>2.522079387566581</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.21384214258669232, 5.258000917719855]</t>
+          <t>[2.0189214050096567, 4.081869133493045]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.06991036117224536</v>
+        <v>3.62473940196395e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06991036117224536</v>
+        <v>3.62473940196395e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>13.96982528483336</v>
+        <v>10.84505959245139</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.570313631981225, 18.3693369376855]</t>
+          <t>[6.7508180060967335, 14.939301178806055]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.066661227879024e-08</v>
+        <v>2.992030391890665e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>8.066661227879024e-08</v>
+        <v>2.992030391890665e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>15.53961961961999</v>
+        <v>13.28476476476507</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.235715715715813</v>
+        <v>9.046046046046254</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.84352352352416</v>
+        <v>17.52348348348389</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3813034416379262</v>
+        <v>0.4470950141721779</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3813034416379262</v>
+        <v>0.4470950141721779</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.864631993034623</v>
+        <v>5.017901420527314</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.113016362889784, 14.84228034895903]</t>
+          <t>[-5.674607765007511, 15.710410606062137]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3313589890667346</v>
+        <v>0.3496039501269794</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3313589890667346</v>
+        <v>0.3496039501269794</v>
       </c>
       <c r="P8" t="n">
-        <v>2.03150035457358</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.1006580868432714, 5.163658795990431]</t>
+          <t>[-0.45913165908319264, 5.7800273246226626]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1980760697920929</v>
+        <v>0.09273158337313903</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1980760697920929</v>
+        <v>0.09273158337313903</v>
       </c>
       <c r="T8" t="n">
-        <v>17.25066281182394</v>
+        <v>13.64267874242568</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[12.105198073887259, 22.396127549760628]</t>
+          <t>[8.059577024429093, 19.22578046042226]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.374917529301968e-08</v>
+        <v>1.193786671160879e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.374917529301968e-08</v>
+        <v>1.193786671160879e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>17.56652652652695</v>
+        <v>14.88720720720755</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.625505505505616</v>
+        <v>2.067667667667715</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.50754754754828</v>
+        <v>27.70674674674738</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.80000000000013</v>
+        <v>24.16000000000034</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3881366143283921</v>
+        <v>0.1680401140482977</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3881366143283921</v>
+        <v>0.1680401140482977</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.516639622578596</v>
+        <v>6.459362390916246</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.7596726205692246, 12.792951865726417]</t>
+          <t>[-2.6544205795881464, 15.573145361420638]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2775448449179285</v>
+        <v>0.1603420709316778</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2775448449179285</v>
+        <v>0.1603420709316778</v>
       </c>
       <c r="P9" t="n">
-        <v>1.088079137279347</v>
+        <v>2.270500396288118</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.0377898293555416, 4.213948103914235]</t>
+          <t>[-0.8553685703467702, 5.396369362923006]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.4868589405512931</v>
+        <v>0.1504282306770115</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4868589405512931</v>
+        <v>0.1504282306770115</v>
       </c>
       <c r="T9" t="n">
-        <v>12.33064928317409</v>
+        <v>13.30846032523717</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.779382248951293, 16.88191631739688]</t>
+          <t>[8.529942150434081, 18.08697850004026]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.983504313018969e-06</v>
+        <v>1.182205627836552e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.983504313018969e-06</v>
+        <v>1.182205627836552e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>18.85165165165176</v>
+        <v>15.42950950950973</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.50870870870876</v>
+        <v>3.409969969970025</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.19459459459476</v>
+        <v>27.44904904904943</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.80000000000013</v>
+        <v>24.16000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04306966566079762</v>
+        <v>0.2311425501915364</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04306966566079762</v>
+        <v>0.2311425501915364</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.901610431658655</v>
+        <v>5.312784299696025</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.11566331706314337, 15.687557546254167]</t>
+          <t>[-2.662921206230262, 13.288489805622312]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04682988632101659</v>
+        <v>0.186445368859534</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04682988632101659</v>
+        <v>0.186445368859534</v>
       </c>
       <c r="P10" t="n">
-        <v>1.314500229429963</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.08176317216550189, 2.7107636310254275]</t>
+          <t>[-0.5031579825569237, 5.723422051585008]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.06437051367951252</v>
+        <v>0.09821688001704332</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06437051367951252</v>
+        <v>0.09821688001704332</v>
       </c>
       <c r="T10" t="n">
-        <v>11.27070660331649</v>
+        <v>14.45026032558462</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.03347648344381, 15.507936723189161]</t>
+          <t>[10.11403562430976, 18.786485026859474]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.775333504123623e-06</v>
+        <v>2.728667225504466e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>2.775333504123623e-06</v>
+        <v>2.728667225504466e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>18.03003003003013</v>
+        <v>14.12356356356376</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.96336336336343</v>
+        <v>2.152392392392425</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.09669669669683</v>
+        <v>26.0947347347351</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.80000000000013</v>
+        <v>24.16000000000034</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.008208494257470722</v>
+        <v>0.1914570147930417</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008208494257470722</v>
+        <v>0.1914570147930417</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>9.246163865069693</v>
+        <v>5.757928422109014</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[2.2784679291617103, 16.213859800977676]</t>
+          <t>[-2.42928392937511, 13.945140773593138]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01044266991410803</v>
+        <v>0.1635191587275107</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01044266991410803</v>
+        <v>0.1635191587275107</v>
       </c>
       <c r="P11" t="n">
-        <v>1.389973926813502</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.3836579616996545, 2.396289891927349]</t>
+          <t>[-0.81134224687304, 5.452974635960662]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.007866266447666748</v>
+        <v>0.1425783416990543</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007866266447666748</v>
+        <v>0.1425783416990543</v>
       </c>
       <c r="T11" t="n">
-        <v>10.50413512942792</v>
+        <v>10.03889390247518</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.571100901615916, 14.437169357239926]</t>
+          <t>[5.613303310738324, 14.46448449421203]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.578468242475651e-06</v>
+        <v>3.807910829212169e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.578468242475651e-06</v>
+        <v>3.807910829212169e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>17.75615615615625</v>
+        <v>15.23603603603625</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.10450450450458</v>
+        <v>3.192312312312357</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.40780780780793</v>
+        <v>27.27975975976014</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.80000000000013</v>
+        <v>24.16000000000034</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2466470110482092</v>
+        <v>0.5581289814491195</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2466470110482092</v>
+        <v>0.5581289814491195</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.636924193320492</v>
+        <v>3.515202545241341</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.191976550669062, 14.465824937310046]</t>
+          <t>[-5.156995932797183, 12.187401023279865]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2050452364864388</v>
+        <v>0.4185724236213098</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2050452364864388</v>
+        <v>0.4185724236213098</v>
       </c>
       <c r="P12" t="n">
-        <v>2.295658295415965</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 5.408948312486931]</t>
+          <t>[-1.2201581077005406, 5.0567377246970855]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1444770930476968</v>
+        <v>0.2246940569121636</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1444770930476968</v>
+        <v>0.2246940569121636</v>
       </c>
       <c r="T12" t="n">
-        <v>14.62245958382096</v>
+        <v>12.95224332598826</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.886429247267102, 19.358489920374808]</t>
+          <t>[8.339010141851904, 17.565476510124615]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.478380409203339e-07</v>
+        <v>1.013003579686256e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.478380409203339e-07</v>
+        <v>1.013003579686256e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>14.46966966966975</v>
+        <v>16.78382382382406</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.17237237237239</v>
+        <v>4.715915915915978</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.76696696696711</v>
+        <v>28.85173173173214</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.80000000000013</v>
+        <v>24.16000000000034</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07285559864644298</v>
+        <v>0.308749708587271</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07285559864644298</v>
+        <v>0.308749708587271</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>8.642986287617653</v>
+        <v>5.16552295846034</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.483799704575155, 18.76977227981046]</t>
+          <t>[-3.3042548724717165, 13.635300789392396]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.09248884319255968</v>
+        <v>0.2256994072449285</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09248884319255968</v>
+        <v>0.2256994072449285</v>
       </c>
       <c r="P13" t="n">
-        <v>2.572395185822273</v>
+        <v>2.92460577361212</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.421394810391424, 4.723395561253122]</t>
+          <t>[-0.19497371824080734, 6.044185265465048]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.02016700166773577</v>
+        <v>0.06545332432287365</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02016700166773577</v>
+        <v>0.06545332432287365</v>
       </c>
       <c r="T13" t="n">
-        <v>15.27942591698821</v>
+        <v>12.55050021087719</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.982531425251274, 20.576320408725138]</t>
+          <t>[7.830209466329272, 17.2707909554251]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.975409631542306e-07</v>
+        <v>2.79582860485128e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>5.975409631542306e-07</v>
+        <v>2.79582860485128e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>13.46546546546554</v>
+        <v>12.91435435435453</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.660060060060093</v>
+        <v>0.9189989989990099</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.27087087087099</v>
+        <v>24.90970970971006</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.80000000000013</v>
+        <v>24.16000000000034</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.570971844431662</v>
+        <v>0.122606507646313</v>
       </c>
       <c r="I14" t="n">
-        <v>0.570971844431662</v>
+        <v>0.122606507646313</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>2.854000785463495</v>
+        <v>7.824349550347151</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.327819849990039, 10.035821420917028]</t>
+          <t>[-2.260576292446782, 17.909275393141083]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.4276907341810725</v>
+        <v>0.1251446889615941</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4276907341810725</v>
+        <v>0.1251446889615941</v>
       </c>
       <c r="P14" t="n">
-        <v>3.062974218815274</v>
+        <v>2.220184598032427</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.044026323473730145, 6.169974761104278]</t>
+          <t>[-0.9119738433844233, 5.352343039449277]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.05319546890258819</v>
+        <v>0.1602908477614695</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05319546890258819</v>
+        <v>0.1602908477614695</v>
       </c>
       <c r="T14" t="n">
-        <v>9.829627611501099</v>
+        <v>14.5556907800021</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.924426067352431, 13.734829155649766]</t>
+          <t>[9.236669187644079, 19.87471237236012]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.293181489620437e-06</v>
+        <v>1.647011753425076e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>7.293181489620437e-06</v>
+        <v>1.647011753425076e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>11.68528528528535</v>
+        <v>15.6229829829832</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.4108108108108155</v>
+        <v>3.57925925925931</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.95975975975988</v>
+        <v>27.66670670670709</v>
       </c>
     </row>
   </sheetData>
